--- a/PCB/main/main.xlsx
+++ b/PCB/main/main.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vuyisa\MAIN_PROJECT\eee3088f-project\PCB\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F885D95-6A3C-494B-A6AB-F2B356C30BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A77744-EAB9-41D3-B8CC-C332D81DCF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
   </numFmts>
@@ -1187,11 +1187,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PCB/main/main.xlsx
+++ b/PCB/main/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vuyisa\MAIN_PROJECT\eee3088f-project\PCB\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A77744-EAB9-41D3-B8CC-C332D81DCF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E70B36-F5DC-44FB-9E01-30AD88D9A3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t>Comment</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>LCSC Part Number</t>
+    <t>LCSC</t>
   </si>
   <si>
     <t>ALS-PT19-315C/L177/TR8</t>
@@ -67,94 +67,64 @@
     <t>C51412</t>
   </si>
   <si>
-    <t>CL10C470JB8NNNC</t>
-  </si>
-  <si>
-    <t>C14,C15</t>
-  </si>
-  <si>
-    <t>CAPC1608X90N</t>
-  </si>
-  <si>
-    <t>C1671</t>
-  </si>
-  <si>
     <t>CC0603KRX7R9BB104</t>
   </si>
   <si>
-    <t>C2,C13</t>
+    <t>C13</t>
   </si>
   <si>
     <t>C14663</t>
   </si>
   <si>
-    <t>CL10A475KA8NQNC</t>
-  </si>
-  <si>
-    <t>C3,C4,C6</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts_Microcontroller:CAPC1608X95N</t>
-  </si>
-  <si>
-    <t>C69335</t>
+    <t>CL31A106KBHNNNE</t>
+  </si>
+  <si>
+    <t>C2,C6,C7,C8</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:CAPC3216X180N</t>
+  </si>
+  <si>
+    <t>C13585</t>
   </si>
   <si>
     <t>100nF</t>
   </si>
   <si>
+    <t>C3,C4</t>
+  </si>
+  <si>
+    <t>CL21C101JBANNNC</t>
+  </si>
+  <si>
     <t>C5</t>
   </si>
   <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>C7,C8</t>
+    <t>SamacSys_Parts:CAPC2012X75N</t>
+  </si>
+  <si>
+    <t>C1790</t>
+  </si>
+  <si>
+    <t>CL10A105KB8NNNC</t>
+  </si>
+  <si>
+    <t>C9,C10</t>
   </si>
   <si>
     <t>C15849</t>
   </si>
   <si>
-    <t>CL10A105KB8NNNC</t>
-  </si>
-  <si>
-    <t>C9,C10</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts:LEDC1608X70N</t>
-  </si>
-  <si>
-    <t>C264544</t>
-  </si>
-  <si>
-    <t>BAT60J</t>
-  </si>
-  <si>
-    <t>D2,D3</t>
-  </si>
-  <si>
-    <t>Diode_SMD:D_SOD-323</t>
-  </si>
-  <si>
-    <t>C133103</t>
-  </si>
-  <si>
-    <t>Ferrite_Bead</t>
-  </si>
-  <si>
-    <t>FB1</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts:BEADC1608X95N</t>
-  </si>
-  <si>
-    <t>C1002</t>
+    <t>SS14</t>
+  </si>
+  <si>
+    <t>D1,D2</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:DIOM5227X270N</t>
+  </si>
+  <si>
+    <t>C2480</t>
   </si>
   <si>
     <t>LM358DT</t>
@@ -178,40 +148,16 @@
     <t>C6482</t>
   </si>
   <si>
-    <t>FT230XS-R</t>
+    <t>TP4056-42-ESOP8</t>
   </si>
   <si>
     <t>IC4</t>
   </si>
   <si>
-    <t>SamacSys_Parts_Power:SOP64P599X175-16N</t>
-  </si>
-  <si>
-    <t>C69082</t>
-  </si>
-  <si>
-    <t>MCP73831T-2ACI_OT</t>
-  </si>
-  <si>
-    <t>IC5</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts_Power:SOT95P270X145-5N</t>
-  </si>
-  <si>
-    <t>C424093</t>
-  </si>
-  <si>
-    <t>MCP1700T-3302E_TT</t>
-  </si>
-  <si>
-    <t>IC6</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts_Power:SOT95P237X112-3N</t>
-  </si>
-  <si>
-    <t>C39051</t>
+    <t>SamacSys_Parts:SOIC127P600X175-9N</t>
+  </si>
+  <si>
+    <t>C16581</t>
   </si>
   <si>
     <t>Conn_01x33_Female</t>
@@ -223,6 +169,18 @@
     <t>Connector_PinHeader_2.54mm:PinHeader_1x33_P2.54mm_Vertical</t>
   </si>
   <si>
+    <t>ICH-340-CTT</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:DIPS762W74P254L5080H338Q40N</t>
+  </si>
+  <si>
+    <t>C84681</t>
+  </si>
+  <si>
     <t>J2,J3</t>
   </si>
   <si>
@@ -235,7 +193,7 @@
     <t>J5</t>
   </si>
   <si>
-    <t>SamacSys_Parts_Microcontroller:47346-0001</t>
+    <t>SamacSys_Parts:47346-0001</t>
   </si>
   <si>
     <t>C132560</t>
@@ -247,7 +205,7 @@
     <t>J6,J7,J9,J10</t>
   </si>
   <si>
-    <t>SamacSys_Parts_Power:HDRV2W64P0X254_1X2_508X250X873P</t>
+    <t>SamacSys_Parts:HDRV2W64P0X254_1X2_508X250X873P</t>
   </si>
   <si>
     <t>C492401</t>
@@ -256,75 +214,63 @@
     <t>MTP125-1103S1</t>
   </si>
   <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts_Power:HDRV3W64P0X254_1X3_762X250X885P</t>
+    <t>J8,J12,J13,J14</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:HDRV3W64P0X254_1X3_762X250X885P</t>
   </si>
   <si>
     <t>C358685</t>
   </si>
   <si>
-    <t>IRF9540NPbF</t>
+    <t>19-217_GHC-YR1S2_3T</t>
+  </si>
+  <si>
+    <t>LED1,LED2</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:LEDC1608X50N</t>
+  </si>
+  <si>
+    <t>C72043</t>
+  </si>
+  <si>
+    <t>AO3401A</t>
   </si>
   <si>
     <t>Q1</t>
   </si>
   <si>
-    <t>SamacSys_Parts_Power:TO254P469X1042X1967-3P</t>
-  </si>
-  <si>
-    <t>C2575</t>
-  </si>
-  <si>
-    <t>2k</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts:RESC1005X35N</t>
-  </si>
-  <si>
-    <t>C433871</t>
-  </si>
-  <si>
-    <t>0603WAF270JT5E</t>
-  </si>
-  <si>
-    <t>R14,R15</t>
-  </si>
-  <si>
-    <t>RESC1608X55N</t>
-  </si>
-  <si>
-    <t>C25190</t>
-  </si>
-  <si>
-    <t>RC0805FR-07470RL</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts_Microcontroller:RESC2012X60N</t>
-  </si>
-  <si>
-    <t>C114564</t>
+    <t>SamacSys_Parts:SOT95P280X125-3N</t>
+  </si>
+  <si>
+    <t>C15127</t>
+  </si>
+  <si>
+    <t>0603WAF1201T5E</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:RESC1608X55N</t>
+  </si>
+  <si>
+    <t>C22765</t>
+  </si>
+  <si>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>R2,R4,R5,R8,R9,R10,R11,R12,R13,R14</t>
+  </si>
+  <si>
+    <t>C22548</t>
   </si>
   <si>
     <t>10k</t>
   </si>
   <si>
-    <t>SamacSys_Parts:RESC1608X55N</t>
-  </si>
-  <si>
     <t>C25804</t>
   </si>
   <si>
-    <t>RC0603FR-071KL</t>
-  </si>
-  <si>
-    <t>R4,R5,R8,R9,R10,R11,R12,R13</t>
-  </si>
-  <si>
-    <t>C22548</t>
-  </si>
-  <si>
     <t>AC0402FR-07536KL</t>
   </si>
   <si>
@@ -337,13 +283,13 @@
     <t>C144748</t>
   </si>
   <si>
-    <t>TP1,TP2,TP3,TP4,TP5,TP6,TP7,TP8,TP9</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts_Power:5017</t>
-  </si>
-  <si>
-    <t>C238130</t>
+    <t>HT75xx-1-SOT89</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-89-3</t>
   </si>
 </sst>
 </file>
@@ -1188,18 +1134,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="3" width="86.28515625" customWidth="1"/>
-    <col min="4" max="4" width="57.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1266,21 +1211,21 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -1294,24 +1239,24 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1336,65 +1281,62 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1406,15 +1348,15 @@
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -1422,97 +1364,100 @@
       <c r="C16" t="s">
         <v>54</v>
       </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
@@ -1522,112 +1467,39 @@
       <c r="A24" t="s">
         <v>81</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
         <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>86</v>
-      </c>
-      <c r="D25" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
         <v>88</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>5017</v>
-      </c>
-      <c r="B31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/PCB/main/main.xlsx
+++ b/PCB/main/main.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vuyisa\MAIN_PROJECT\eee3088f-project\PCB\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E70B36-F5DC-44FB-9E01-30AD88D9A3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{944082F8-AA90-4916-918E-35234EBA462F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
   <si>
     <t>Comment</t>
   </si>
@@ -214,7 +214,7 @@
     <t>MTP125-1103S1</t>
   </si>
   <si>
-    <t>J8,J12,J13,J14</t>
+    <t>J8,J12,J13,J14,J15</t>
   </si>
   <si>
     <t>SamacSys_Parts:HDRV3W64P0X254_1X3_762X250X885P</t>
@@ -290,12 +290,15 @@
   </si>
   <si>
     <t>Package_TO_SOT_SMD:SOT-89-3</t>
+  </si>
+  <si>
+    <t>C14289</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
   </numFmts>
@@ -1133,11 +1136,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,6 +1504,9 @@
       <c r="C26" t="s">
         <v>89</v>
       </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PCB/main/main.xlsx
+++ b/PCB/main/main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vuyisa\MAIN_PROJECT\eee3088f-project\PCB\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sthab\Documents\EEE3088F\EEE3088F Project\PCB\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{944082F8-AA90-4916-918E-35234EBA462F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5FA95C-E7E1-4AE8-B5EC-887F0B60C380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
   </numFmts>
@@ -779,9 +779,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1136,25 +1140,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1164,11 +1168,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -1178,11 +1182,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
@@ -1192,11 +1196,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
@@ -1206,11 +1210,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
@@ -1220,11 +1224,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
@@ -1234,11 +1238,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
@@ -1248,11 +1252,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
@@ -1262,11 +1266,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
@@ -1276,11 +1280,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
@@ -1290,11 +1294,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C11" t="s">
@@ -1304,11 +1308,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
@@ -1318,11 +1322,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="s">
@@ -1332,22 +1336,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C15" t="s">
@@ -1357,22 +1361,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C17" t="s">
@@ -1382,11 +1386,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C18" t="s">
@@ -1396,11 +1400,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C19" t="s">
@@ -1410,11 +1414,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>67</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C20" t="s">
@@ -1424,11 +1428,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>71</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C21" t="s">
@@ -1438,11 +1442,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" t="s">
@@ -1452,11 +1456,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C23" t="s">
@@ -1466,11 +1470,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>3</v>
       </c>
       <c r="C24" t="s">
@@ -1480,11 +1484,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>83</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C25" t="s">
@@ -1494,11 +1498,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>87</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C26" t="s">
@@ -1510,5 +1514,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>